--- a/SCRIPT/testinfra.xlsx
+++ b/SCRIPT/testinfra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="112"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RunNb" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,7 +145,7 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B34" authorId="0">
@@ -185,7 +185,7 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B36" authorId="0">
@@ -225,7 +225,7 @@
 <file path=xl/comments113.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B13" authorId="0">
@@ -250,7 +250,7 @@
 <file path=xl/comments116.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="A10" authorId="0">
@@ -286,7 +286,7 @@
 <file path=xl/comments117.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="A10" authorId="0">
@@ -375,7 +375,7 @@
 <file path=xl/comments118.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="A10" authorId="0">
@@ -464,7 +464,7 @@
 <file path=xl/comments119.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="A10" authorId="0">
@@ -553,7 +553,7 @@
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B36" authorId="0">
@@ -593,7 +593,7 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B36" authorId="0">
@@ -633,7 +633,7 @@
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -688,7 +688,7 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B16" authorId="0">
@@ -728,7 +728,7 @@
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0">
@@ -753,7 +753,7 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B76" authorId="0">
@@ -778,7 +778,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0">
@@ -802,7 +802,7 @@
 <file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -898,7 +898,7 @@
 <file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B32" authorId="0">
@@ -948,7 +948,7 @@
 <file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -1044,7 +1044,7 @@
 <file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B20" authorId="0">
@@ -1106,7 +1106,7 @@
 <file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B20" authorId="0">
@@ -1168,7 +1168,7 @@
 <file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B21" authorId="0">
@@ -1230,7 +1230,7 @@
 <file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B21" authorId="0">
@@ -1292,7 +1292,7 @@
 <file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -1393,7 +1393,7 @@
 <file path=xl/comments31.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -1469,7 +1469,7 @@
 <file path=xl/comments32.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B25" authorId="0">
@@ -1523,7 +1523,7 @@
 <file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B36" authorId="0">
@@ -1548,7 +1548,7 @@
 <file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B12" authorId="0">
@@ -1602,7 +1602,7 @@
 <file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B17" authorId="0">
@@ -1627,7 +1627,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -1682,7 +1682,7 @@
 <file path=xl/comments44.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B19" authorId="0">
@@ -1707,7 +1707,7 @@
 <file path=xl/comments45.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B19" authorId="0">
@@ -1742,7 +1742,7 @@
 <file path=xl/comments53.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0">
@@ -1778,7 +1778,7 @@
 <file path=xl/comments55.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B14" authorId="0">
@@ -1814,7 +1814,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B13" authorId="0">
@@ -1839,7 +1839,7 @@
 <file path=xl/comments60.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B26" authorId="0">
@@ -1875,7 +1875,7 @@
 <file path=xl/comments69.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B18" authorId="0">
@@ -1911,7 +1911,7 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B35" authorId="0">
@@ -1950,7 +1950,7 @@
 <file path=xl/comments86.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0">
@@ -1986,7 +1986,7 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B34" authorId="0">
@@ -2026,7 +2026,7 @@
 <file path=xl/comments95.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0">
@@ -2051,7 +2051,7 @@
 <file path=xl/comments96.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0">
@@ -2091,7 +2091,7 @@
 <file path=xl/comments97.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0">
@@ -2131,7 +2131,7 @@
 <file path=xl/comments98.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0">
@@ -2169,7 +2169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="1274">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -6606,13 +6606,13 @@
     <t xml:space="preserve">./driver/paths/input_folder</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/wth/Downloads/temp/</t>
+    <t xml:space="preserve">$DATA_FOLDER/INPUT/D001a/</t>
   </si>
   <si>
     <t xml:space="preserve">./driver/paths/input_folder/file_input_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Airy0520_1_RGB_exterior_outline.tif</t>
+    <t xml:space="preserve">RJ013_2020-09-23_dsh2-mig5RNAi_E4_AiryProcess_t6_21_RGB_v3.tif.tif</t>
   </si>
   <si>
     <t xml:space="preserve">./driver/paths/input_folder/file_input_2</t>
@@ -6639,79 +6639,85 @@
     <t xml:space="preserve">./driver/arg2/dtype</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./driver/arg3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter small objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./driver/arg4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./driver/arg5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D001b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method test of helper function 'replace tif values', with input file to replace values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/wth/Downloads/baseimages/MAIN_INPUT_IMAGES/GT_exterior_outline/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL1_emb1_exterior_outline.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace_values_tif.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace_tif_values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001b/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D001c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method test of helper function 'make image sequence',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/INPUT/D001c/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL1_t000_GT_SEG_CTC_filtered.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001c/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_image_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">man_seg_000_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D001d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method test of helper function 'calculate_CTC_SEG_slice_detail',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/INPUT/D001d/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">man_seg_000_004.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mask000_z04.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001d/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate_CTC_SEG_slice_detail</t>
+  </si>
+  <si>
     <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./driver/arg3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./driver/arg4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./driver/arg5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D001b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method test of helper function 'replace tif values', with input file to replace values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/wth/Downloads/baseimages/MAIN_INPUT_IMAGES/GT_exterior_outline/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL1_emb1_exterior_outline.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replace_values_tif.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replace_tif_values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001b/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D001c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method test of helper function 'make image sequence',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$DATA_FOLDER/INPUT/D001c/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL1_t000_GT_SEG_CTC_filtered.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001c/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make_image_sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man_seg_000_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D001d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method test of helper function 'calculate_CTC_SEG_slice_detail',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$DATA_FOLDER/INPUT/D001d/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man_seg_000_004.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mask000_z04.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/D001d/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate_CTC_SEG_slice_detail</t>
   </si>
   <si>
     <t xml:space="preserve">D001e</t>
@@ -6918,7 +6924,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7186,12 +7192,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -7370,7 +7370,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7507,7 +7507,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7527,15 +7527,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7543,15 +7535,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7643,10 +7631,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7656,10 +7640,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7751,9 +7731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>491400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7763,7 +7743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10028880" cy="9505440"/>
+          <a:ext cx="10025280" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7801,9 +7781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7813,7 +7793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="8374680"/>
+          <a:ext cx="9776880" cy="8371080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7846,9 +7826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7858,7 +7838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="8374680"/>
+          <a:ext cx="9776880" cy="8371080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7891,9 +7871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7903,7 +7883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="8374680"/>
+          <a:ext cx="9776880" cy="8371080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7937,13 +7917,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7952,8 +7932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="175320"/>
-          <a:ext cx="9780480" cy="7174440"/>
+          <a:off x="0" y="176040"/>
+          <a:ext cx="9776880" cy="7170120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7982,13 +7962,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7997,8 +7977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="175320"/>
-          <a:ext cx="9780480" cy="7174440"/>
+          <a:off x="0" y="176040"/>
+          <a:ext cx="9776880" cy="7170120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8027,13 +8007,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8042,8 +8022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="175320"/>
-          <a:ext cx="9780480" cy="7174440"/>
+          <a:off x="0" y="176040"/>
+          <a:ext cx="9776880" cy="7170120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8081,9 +8061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8093,7 +8073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9505440"/>
+          <a:ext cx="9776880" cy="9502560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8131,9 +8111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815720</xdr:colOff>
+      <xdr:colOff>4812120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8143,7 +8123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776880" cy="9840960"/>
+          <a:ext cx="9773280" cy="9838080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8176,9 +8156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815720</xdr:colOff>
+      <xdr:colOff>4812120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8188,7 +8168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776880" cy="9840960"/>
+          <a:ext cx="9773280" cy="9838080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8221,9 +8201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815720</xdr:colOff>
+      <xdr:colOff>4812120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8233,7 +8213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776880" cy="9840960"/>
+          <a:ext cx="9773280" cy="9838080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8266,9 +8246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815720</xdr:colOff>
+      <xdr:colOff>4812120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8278,7 +8258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776880" cy="9840960"/>
+          <a:ext cx="9773280" cy="9838080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8311,9 +8291,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815720</xdr:colOff>
+      <xdr:colOff>4812120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8323,7 +8303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776880" cy="9840960"/>
+          <a:ext cx="9773280" cy="9838080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8361,9 +8341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8373,7 +8353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8406,9 +8386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8418,7 +8398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8456,9 +8436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8468,7 +8448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8501,9 +8481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8513,7 +8493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8546,9 +8526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8558,7 +8538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8591,9 +8571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8603,7 +8583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8636,9 +8616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8648,7 +8628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8686,9 +8666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8698,7 +8678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="9886320"/>
+          <a:ext cx="10053720" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8731,9 +8711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8743,7 +8723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="9886320"/>
+          <a:ext cx="10053720" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8781,9 +8761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8793,7 +8773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8826,9 +8806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8838,7 +8818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8876,9 +8856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8888,7 +8868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="10076760"/>
+          <a:ext cx="10053720" cy="10073160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8921,9 +8901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8933,7 +8913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="10076760"/>
+          <a:ext cx="10053720" cy="10073160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8971,9 +8951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8983,7 +8963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="9886320"/>
+          <a:ext cx="10053720" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9016,9 +8996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9028,7 +9008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="9886320"/>
+          <a:ext cx="10053720" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9066,9 +9046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815360</xdr:colOff>
+      <xdr:colOff>4811760</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9078,7 +9058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776520" cy="9764280"/>
+          <a:ext cx="9772920" cy="9761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9111,9 +9091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815360</xdr:colOff>
+      <xdr:colOff>4811760</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9123,7 +9103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776520" cy="9764280"/>
+          <a:ext cx="9772920" cy="9761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9156,9 +9136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4815360</xdr:colOff>
+      <xdr:colOff>4811760</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9168,7 +9148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9776520" cy="9764280"/>
+          <a:ext cx="9772920" cy="9761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9206,9 +9186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9218,7 +9198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056960" cy="9886680"/>
+          <a:ext cx="10054080" cy="9883800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9251,9 +9231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9263,7 +9243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056960" cy="9886680"/>
+          <a:ext cx="10054080" cy="9883800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9296,9 +9276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9308,7 +9288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056960" cy="9886680"/>
+          <a:ext cx="10054080" cy="9883800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9341,9 +9321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9353,7 +9333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056960" cy="9886680"/>
+          <a:ext cx="10054080" cy="9883800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9391,9 +9371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9403,7 +9383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="10267560"/>
+          <a:ext cx="9776880" cy="10264680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9436,9 +9416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9448,7 +9428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="10267560"/>
+          <a:ext cx="9776880" cy="10264680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9481,9 +9461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9493,7 +9473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="10267560"/>
+          <a:ext cx="9776880" cy="10264680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9531,9 +9511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9543,7 +9523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9576,9 +9556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9588,7 +9568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9621,9 +9601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9633,7 +9613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9671,9 +9651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9683,7 +9663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9721,9 +9701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9733,7 +9713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9766,9 +9746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9778,7 +9758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9811,9 +9791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9823,7 +9803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9861,9 +9841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9873,7 +9853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="3894480"/>
+          <a:ext cx="10050120" cy="3891600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9911,9 +9891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9923,7 +9903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="2052000"/>
+          <a:ext cx="10050120" cy="2048400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9961,9 +9941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9973,7 +9953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055880" cy="9505440"/>
+          <a:ext cx="10053000" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10011,9 +9991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10023,7 +10003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055880" cy="9505440"/>
+          <a:ext cx="10053000" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10061,9 +10041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10073,7 +10053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9505440"/>
+          <a:ext cx="9776880" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10111,9 +10091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10123,7 +10103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10156,9 +10136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10168,7 +10148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10206,9 +10186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10218,7 +10198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055160" cy="9505440"/>
+          <a:ext cx="10052280" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10256,9 +10236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10268,7 +10248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055520" cy="9269280"/>
+          <a:ext cx="10052640" cy="9265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10306,9 +10286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10318,7 +10298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055520" cy="9269280"/>
+          <a:ext cx="10052640" cy="9265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10356,9 +10336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10368,7 +10348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055520" cy="9269280"/>
+          <a:ext cx="10052640" cy="9265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10406,9 +10386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10418,7 +10398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10055520" cy="9269280"/>
+          <a:ext cx="10052640" cy="9265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10456,9 +10436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10468,7 +10448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10056600" cy="9886320"/>
+          <a:ext cx="10053720" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10506,9 +10486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5151240</xdr:colOff>
+      <xdr:colOff>5147640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10518,7 +10498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10060920" cy="9886320"/>
+          <a:ext cx="10057320" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10556,9 +10536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10568,7 +10548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10606,9 +10586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10618,7 +10598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10044720" cy="10031760"/>
+          <a:ext cx="10041840" cy="10028880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10656,9 +10636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10668,7 +10648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10701,9 +10681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10713,7 +10693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10751,9 +10731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10763,7 +10743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10796,9 +10776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10808,7 +10788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10846,9 +10826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10858,7 +10838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10891,9 +10871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10903,7 +10883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10941,9 +10921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10953,7 +10933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10986,9 +10966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10998,7 +10978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10043640" cy="9886320"/>
+          <a:ext cx="10040760" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11036,9 +11016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11048,7 +11028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10044720" cy="9604800"/>
+          <a:ext cx="10041840" cy="9601200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11086,9 +11066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11098,7 +11078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9589680"/>
+          <a:ext cx="5970240" cy="9540360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11136,9 +11116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11148,7 +11128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11186,9 +11166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11198,7 +11178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11231,9 +11211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11243,7 +11223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11276,9 +11256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11288,7 +11268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11326,9 +11306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11338,7 +11318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11371,9 +11351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11383,7 +11363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11416,9 +11396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11428,7 +11408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11466,9 +11446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11478,7 +11458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11511,9 +11491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11523,7 +11503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11556,9 +11536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11568,7 +11548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047240" cy="9505440"/>
+          <a:ext cx="10043640" cy="9501840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11606,9 +11586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11618,7 +11598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11651,9 +11631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11663,7 +11643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886320"/>
+          <a:ext cx="10050120" cy="9882720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11701,9 +11681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11713,7 +11693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886680"/>
+          <a:ext cx="10050120" cy="9883080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11746,9 +11726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11758,7 +11738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886680"/>
+          <a:ext cx="10050120" cy="9883080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11796,9 +11776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11808,7 +11788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886680"/>
+          <a:ext cx="10050120" cy="9883080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11841,9 +11821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11853,7 +11833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9886680"/>
+          <a:ext cx="10050120" cy="9883080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11891,9 +11871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11903,7 +11883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9877320"/>
+          <a:ext cx="10050120" cy="9874440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11936,9 +11916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11948,7 +11928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10053720" cy="9877320"/>
+          <a:ext cx="10050120" cy="9874440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11986,9 +11966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11998,7 +11978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12031,9 +12011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12043,7 +12023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12076,9 +12056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819320</xdr:colOff>
+      <xdr:colOff>4815720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12088,7 +12068,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9780480" cy="9886320"/>
+          <a:ext cx="9776880" cy="9883440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12124,7 +12104,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="B9 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12740,7 +12720,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13394,7 +13374,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B9 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13557,7 +13537,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>194</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -13565,7 +13545,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="67" t="s">
         <v>983</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -13573,7 +13553,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="67" t="s">
         <v>196</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -13581,10 +13561,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="67" t="s">
         <v>986</v>
       </c>
-      <c r="B23" s="39" t="n">
+      <c r="B23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13632,7 +13612,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13733,7 +13713,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13821,7 +13801,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13927,7 +13907,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14049,7 +14029,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14136,7 +14116,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B9 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14250,7 +14230,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B9 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14339,7 +14319,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B9 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14429,7 +14409,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B9 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14521,7 +14501,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14877,7 +14857,7 @@
       <c r="A43" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="39" t="n">
+      <c r="B43" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14923,7 +14903,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -14931,7 +14911,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -14939,7 +14919,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -14947,7 +14927,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -14955,7 +14935,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="13" t="n">
@@ -14963,7 +14943,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -15075,7 +15055,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -15083,7 +15063,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -15091,7 +15071,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>196</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -15167,7 +15147,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B9 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15274,7 +15254,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B9 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15375,7 +15355,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B9 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15481,16 +15461,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -15518,7 +15498,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>87</v>
       </c>
@@ -15527,7 +15507,7 @@
       <c r="A5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="0" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -15535,7 +15515,7 @@
       <c r="A6" s="0" t="s">
         <v>1170</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="0" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -15543,11 +15523,11 @@
       <c r="A7" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="0" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>1174</v>
       </c>
@@ -15595,11 +15575,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="8" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -15607,21 +15587,24 @@
       <c r="A15" s="0" t="s">
         <v>1183</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>116</v>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>116</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>116</v>
@@ -15659,7 +15642,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15674,7 +15657,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15682,7 +15665,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15706,7 +15689,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15714,7 +15697,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15722,7 +15705,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15730,7 +15713,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15738,7 +15721,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15767,7 +15750,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>116</v>
@@ -15775,7 +15758,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -15786,7 +15769,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -15808,7 +15791,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15823,7 +15806,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15831,7 +15814,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15855,7 +15838,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15863,7 +15846,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15879,7 +15862,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15887,7 +15870,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15895,7 +15878,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15916,7 +15899,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>116</v>
@@ -15924,7 +15907,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -15935,7 +15918,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -15957,7 +15940,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15972,7 +15955,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15980,7 +15963,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16004,7 +15987,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16012,7 +15995,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16020,7 +16003,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16028,7 +16011,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16036,7 +16019,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16052,7 +16035,7 @@
         <v>1179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1182</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16073,7 +16056,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -16081,7 +16064,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>116</v>
@@ -16092,7 +16075,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -16116,7 +16099,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16131,7 +16114,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16139,7 +16122,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,7 +16146,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16171,7 +16154,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16179,7 +16162,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16187,7 +16170,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16195,7 +16178,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16203,7 +16186,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16211,7 +16194,7 @@
         <v>1179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16232,7 +16215,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -16240,7 +16223,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>116</v>
@@ -16251,7 +16234,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -16275,7 +16258,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16290,7 +16273,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16298,7 +16281,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16322,7 +16305,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16330,7 +16313,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16338,7 +16321,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16346,7 +16329,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16354,7 +16337,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16362,7 +16345,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16370,7 +16353,7 @@
         <v>1179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16378,7 +16361,7 @@
         <v>1180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16391,7 +16374,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -16399,7 +16382,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>116</v>
@@ -16410,7 +16393,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -16434,7 +16417,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16449,7 +16432,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16457,7 +16440,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16481,7 +16464,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16489,7 +16472,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16497,7 +16480,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16505,7 +16488,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16513,7 +16496,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16521,7 +16504,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16550,7 +16533,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -16558,7 +16541,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>116</v>
@@ -16569,7 +16552,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -16594,7 +16577,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B9 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16950,7 +16933,7 @@
       <c r="A43" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="39" t="n">
+      <c r="B43" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16996,7 +16979,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -17004,7 +16987,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -17012,7 +16995,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -17020,7 +17003,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -17028,7 +17011,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="13" t="n">
@@ -17036,7 +17019,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -17148,7 +17131,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -17156,7 +17139,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -17164,7 +17147,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>196</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -17240,7 +17223,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17255,7 +17238,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17263,7 +17246,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17287,7 +17270,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17295,7 +17278,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17303,7 +17286,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17311,7 +17294,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17319,7 +17302,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17327,7 +17310,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17343,7 +17326,7 @@
         <v>1180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17364,15 +17347,15 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1182</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>116</v>
@@ -17380,7 +17363,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>116</v>
@@ -17391,7 +17374,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -17413,7 +17396,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17428,7 +17411,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17436,7 +17419,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17460,7 +17443,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17468,7 +17451,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17476,7 +17459,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17484,7 +17467,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17492,7 +17475,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17500,7 +17483,7 @@
         <v>1178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17508,7 +17491,7 @@
         <v>1179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17516,7 +17499,7 @@
         <v>1180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17524,7 +17507,7 @@
         <v>1181</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17537,7 +17520,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>106</v>
@@ -17545,7 +17528,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>116</v>
@@ -17553,7 +17536,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>116</v>
@@ -17564,7 +17547,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -17586,7 +17569,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17601,7 +17584,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17609,7 +17592,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17633,7 +17616,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17641,7 +17624,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17649,7 +17632,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17657,7 +17640,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17665,7 +17648,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17710,7 +17693,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>106</v>
@@ -17718,7 +17701,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>116</v>
@@ -17726,7 +17709,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>116</v>
@@ -17737,7 +17720,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -17759,7 +17742,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17774,7 +17757,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17782,7 +17765,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17806,7 +17789,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17814,7 +17797,7 @@
         <v>1172</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17822,7 +17805,7 @@
         <v>1174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17830,7 +17813,7 @@
         <v>1175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17838,7 +17821,7 @@
         <v>1176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17854,7 +17837,7 @@
         <v>1179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17870,7 +17853,7 @@
         <v>1181</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17883,7 +17866,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>106</v>
@@ -17891,7 +17874,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>116</v>
@@ -17899,7 +17882,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>116</v>
@@ -17910,7 +17893,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -17933,7 +17916,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17944,65 +17927,65 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73" t="s">
-        <v>1270</v>
+      <c r="A15" s="68" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
-        <v>1271</v>
+      <c r="A16" s="68" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18035,7 +18018,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B9 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18391,7 +18374,7 @@
       <c r="A43" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="39" t="n">
+      <c r="B43" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18437,7 +18420,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -18445,7 +18428,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -18453,7 +18436,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -18461,7 +18444,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -18469,7 +18452,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="13" t="n">
@@ -18477,7 +18460,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -18589,7 +18572,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -18597,7 +18580,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -18605,7 +18588,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>196</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -18682,7 +18665,7 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="B9 A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19096,7 +19079,7 @@
       <c r="A51" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="41" t="n">
+      <c r="B51" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19161,7 +19144,7 @@
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="40" t="s">
         <v>343</v>
       </c>
     </row>
@@ -19169,7 +19152,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="40" t="s">
         <v>116</v>
       </c>
     </row>
@@ -19193,7 +19176,7 @@
       <c r="A63" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="43" t="n">
+      <c r="B63" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19420,7 +19403,7 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B9 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20006,7 +19989,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="B9 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20257,7 +20240,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B9 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20895,7 +20878,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21293,7 +21276,7 @@
       <c r="A49" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="39" t="n">
+      <c r="B49" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21366,7 +21349,7 @@
       <c r="A58" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="44" t="n">
+      <c r="B58" s="42" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -21374,7 +21357,7 @@
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="40" t="s">
         <v>381</v>
       </c>
     </row>
@@ -21382,7 +21365,7 @@
       <c r="A60" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B60" s="45" t="n">
+      <c r="B60" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21617,7 +21600,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22015,7 +21998,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="1" sqref="B9 B28"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22077,7 +22060,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B9 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22475,7 +22458,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23113,7 +23096,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="B9 B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23240,7 +23223,7 @@
       <c r="A15" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23296,7 +23279,7 @@
       <c r="A22" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -23344,7 +23327,7 @@
       <c r="A28" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B28" s="47" t="n">
+      <c r="B28" s="44" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -23577,7 +23560,7 @@
       <c r="A57" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="48" t="n">
+      <c r="B57" s="45" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -23845,7 +23828,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24115,7 +24098,7 @@
       <c r="A33" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="47" t="n">
+      <c r="B33" s="44" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -24365,7 +24348,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24491,7 +24474,7 @@
       <c r="A15" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24547,7 +24530,7 @@
       <c r="A22" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -24595,7 +24578,7 @@
       <c r="A28" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B28" s="47" t="n">
+      <c r="B28" s="44" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -24771,7 +24754,7 @@
       <c r="A50" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="41" t="n">
+      <c r="B50" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24828,7 +24811,7 @@
       <c r="A57" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="48" t="n">
+      <c r="B57" s="45" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -24836,7 +24819,7 @@
       <c r="A58" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="40" t="s">
         <v>430</v>
       </c>
     </row>
@@ -24868,7 +24851,7 @@
       <c r="A62" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B62" s="45" t="n">
+      <c r="B62" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25095,7 +25078,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25493,7 +25476,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="B9 F16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25571,7 +25554,7 @@
       <c r="A9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -25659,7 +25642,7 @@
       <c r="A20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="50" t="n">
+      <c r="B20" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25771,7 +25754,7 @@
       <c r="A34" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B34" s="50" t="n">
+      <c r="B34" s="47" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -25933,7 +25916,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26211,7 +26194,7 @@
       <c r="A34" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B34" s="50" t="n">
+      <c r="B34" s="47" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -26357,7 +26340,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26443,7 +26426,7 @@
       <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>243</v>
       </c>
     </row>
@@ -26651,7 +26634,7 @@
       <c r="A36" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="43" t="n">
         <v>500</v>
       </c>
     </row>
@@ -26667,7 +26650,7 @@
       <c r="A38" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26909,7 +26892,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26995,7 +26978,7 @@
       <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -27203,7 +27186,7 @@
       <c r="A36" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="43" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -27219,7 +27202,7 @@
       <c r="A38" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27461,7 +27444,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="B9 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28113,7 +28096,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B9 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28207,7 +28190,7 @@
       <c r="A11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>475</v>
       </c>
     </row>
@@ -28327,7 +28310,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -28335,7 +28318,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -28343,7 +28326,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -28351,7 +28334,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -28359,7 +28342,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -28367,7 +28350,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="49" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -28375,7 +28358,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="49" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -28383,23 +28366,23 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="46" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -28407,7 +28390,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="17" t="n">
@@ -28415,7 +28398,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -28423,7 +28406,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>412</v>
       </c>
       <c r="B38" s="17" t="n">
@@ -28431,7 +28414,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>444</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -28439,23 +28422,23 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="50" t="s">
         <v>480</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -28559,7 +28542,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="52" t="s">
         <v>159</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -28567,7 +28550,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="52" t="s">
         <v>161</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -28575,7 +28558,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="52" t="s">
         <v>163</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -28599,7 +28582,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="53" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -28607,7 +28590,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="53" t="s">
         <v>170</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -28615,7 +28598,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="53" t="s">
         <v>223</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -28623,7 +28606,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -28631,7 +28614,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="53" t="s">
         <v>174</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -28639,7 +28622,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="53" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -28647,7 +28630,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="53" t="s">
         <v>272</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -28655,7 +28638,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="53" t="s">
         <v>273</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -28853,7 +28836,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="1" sqref="B9 M34"/>
+      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28947,7 +28930,7 @@
       <c r="A11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -29064,7 +29047,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -29072,7 +29055,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -29080,7 +29063,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -29088,7 +29071,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -29096,7 +29079,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -29104,7 +29087,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="49" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -29112,7 +29095,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="49" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -29120,23 +29103,23 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="46" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -29144,7 +29127,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="17" t="n">
@@ -29152,7 +29135,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -29160,7 +29143,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>412</v>
       </c>
       <c r="B38" s="23" t="n">
@@ -29168,7 +29151,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>444</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -29251,7 +29234,7 @@
       <c r="A49" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="41" t="n">
+      <c r="B49" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -29308,29 +29291,29 @@
       <c r="A56" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="57" t="n">
+      <c r="B56" s="54" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="40" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="45" t="n">
+      <c r="B58" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="53" t="s">
         <v>170</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -29338,7 +29321,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="53" t="s">
         <v>223</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -29346,7 +29329,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -29354,7 +29337,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="53" t="s">
         <v>174</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -29362,7 +29345,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="53" t="s">
         <v>175</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -29370,7 +29353,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="53" t="s">
         <v>272</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -29378,7 +29361,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="53" t="s">
         <v>273</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -29575,7 +29558,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29773,7 +29756,7 @@
       <c r="A24" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="58" t="n">
+      <c r="B24" s="55" t="n">
         <v>20</v>
       </c>
     </row>
@@ -29805,7 +29788,7 @@
       <c r="A28" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="56" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30151,7 +30134,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30347,7 +30330,7 @@
       <c r="A23" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="60" t="n">
+      <c r="B23" s="57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30443,7 +30426,7 @@
       <c r="A35" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="B35" s="59" t="n">
+      <c r="B35" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -30686,7 +30669,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="1" sqref="B9 B23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30866,7 +30849,7 @@
       <c r="A21" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="48" t="n">
+      <c r="B21" s="45" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30882,7 +30865,7 @@
       <c r="A23" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="60" t="n">
+      <c r="B23" s="57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30978,7 +30961,7 @@
       <c r="A35" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="B35" s="59" t="n">
+      <c r="B35" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -31221,7 +31204,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B9 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31387,7 +31370,7 @@
       <c r="A19" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="60" t="n">
+      <c r="B19" s="57" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -31403,7 +31386,7 @@
       <c r="A21" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="60" t="n">
+      <c r="B21" s="57" t="n">
         <v>110</v>
       </c>
     </row>
@@ -31438,7 +31421,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B9 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31590,7 +31573,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31697,10 +31680,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>548</v>
       </c>
     </row>
@@ -31721,26 +31704,26 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="B16" s="61" t="n">
+      <c r="B16" s="58" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="B17" s="61" t="n">
+      <c r="B17" s="58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="B18" s="61" t="n">
+      <c r="B18" s="58" t="n">
         <v>0.0005</v>
       </c>
     </row>
@@ -31811,7 +31794,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31944,7 +31927,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32077,8 +32060,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B9 B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32808,7 +32791,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32941,7 +32924,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33122,7 +33105,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33295,7 +33278,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33458,7 +33441,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>604</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -33492,7 +33475,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33699,7 +33682,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33857,7 +33840,7 @@
       <c r="A19" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="50" t="n">
+      <c r="B19" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33898,7 +33881,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34103,7 +34086,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34292,7 +34275,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34481,7 +34464,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34663,7 +34646,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34788,7 +34771,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34970,7 +34953,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35088,7 +35071,7 @@
       <c r="A14" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>675</v>
       </c>
     </row>
@@ -35181,7 +35164,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35387,7 +35370,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35569,7 +35552,7 @@
       <c r="A22" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B22" s="50" t="n">
+      <c r="B22" s="47" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -35673,7 +35656,7 @@
       <c r="A35" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="59" t="s">
         <v>693</v>
       </c>
     </row>
@@ -35706,7 +35689,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35863,7 +35846,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35981,7 +35964,7 @@
       <c r="A14" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>707</v>
       </c>
     </row>
@@ -36030,7 +36013,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="B9 B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36180,7 +36163,7 @@
       <c r="A18" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36213,7 +36196,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B9 C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36363,7 +36346,7 @@
       <c r="A18" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36396,7 +36379,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="B9 A37"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36546,7 +36529,7 @@
       <c r="A18" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36579,7 +36562,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="B9 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36729,7 +36712,7 @@
       <c r="A18" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36763,7 +36746,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36898,7 +36881,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36992,7 +36975,7 @@
       <c r="A11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>743</v>
       </c>
     </row>
@@ -37005,7 +36988,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -37013,7 +36996,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -37021,7 +37004,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="49" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -37029,7 +37012,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -37037,7 +37020,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="49" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -37045,7 +37028,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="49" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -37053,7 +37036,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="49" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -37061,7 +37044,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -37069,7 +37052,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -37077,7 +37060,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -37085,7 +37068,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B23" s="17" t="n">
@@ -37093,23 +37076,23 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="54" t="n">
+      <c r="B24" s="51" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="B25" s="54" t="n">
+      <c r="B25" s="51" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>412</v>
       </c>
       <c r="B26" s="17" t="n">
@@ -37117,7 +37100,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>444</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -37125,7 +37108,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -37133,7 +37116,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>137</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -37141,7 +37124,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -37149,7 +37132,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -37157,7 +37140,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="49" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -37185,7 +37168,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37310,7 +37293,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37435,7 +37418,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37592,7 +37575,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37749,7 +37732,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37890,7 +37873,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38063,7 +38046,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38149,7 +38132,7 @@
       <c r="A10" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>798</v>
       </c>
     </row>
@@ -38194,26 +38177,26 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="61" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="61" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="64" t="n">
+      <c r="B18" s="61" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -38234,26 +38217,26 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="47" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="61" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="61" t="s">
         <v>803</v>
       </c>
     </row>
@@ -38269,7 +38252,7 @@
       <c r="A25" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>804</v>
       </c>
     </row>
@@ -38277,7 +38260,7 @@
       <c r="A26" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>805</v>
       </c>
     </row>
@@ -38285,7 +38268,7 @@
       <c r="A27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>806</v>
       </c>
     </row>
@@ -38380,7 +38363,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B9 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38538,7 +38521,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38709,7 +38692,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -38717,7 +38700,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="62" t="s">
         <v>183</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -38850,7 +38833,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39016,7 +38999,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39230,7 +39213,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39436,7 +39419,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39642,7 +39625,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39848,7 +39831,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40054,7 +40037,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40268,7 +40251,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40474,7 +40457,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40680,7 +40663,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40893,7 +40876,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B9 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41003,7 +40986,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41696,7 +41679,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41797,7 +41780,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B9 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41903,7 +41886,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41996,7 +41979,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42113,7 +42096,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="B9 B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42238,7 +42221,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42414,7 +42397,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42457,7 +42440,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -42465,7 +42448,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -42473,7 +42456,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -42505,7 +42488,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -42513,7 +42496,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>183</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -42597,7 +42580,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42722,7 +42705,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42847,7 +42830,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42941,7 +42924,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43595,7 +43578,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43680,7 +43663,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43765,7 +43748,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43843,7 +43826,7 @@
       <c r="A9" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -43891,7 +43874,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43976,7 +43959,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44190,7 +44173,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44342,7 +44325,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44364,7 +44347,7 @@
       <c r="A2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="64" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -44409,7 +44392,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="34" t="s">
         <v>1007</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -44417,7 +44400,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="65" t="s">
         <v>1009</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -44425,7 +44408,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="65" t="s">
         <v>1010</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -44433,7 +44416,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="65" t="s">
         <v>1011</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -44441,7 +44424,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="65" t="s">
         <v>1019</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -44468,7 +44451,7 @@
       <c r="A15" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="70" t="n">
+      <c r="B15" s="66" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44493,7 +44476,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44644,7 +44627,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B9 B32"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
